--- a/Docs/WCHS Auditorum.xlsx
+++ b/Docs/WCHS Auditorum.xlsx
@@ -1460,7 +1460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1472,7 +1472,7 @@
   <dimension ref="A1:F444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1630,22 +1630,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Docs/WCHS Auditorum.xlsx
+++ b/Docs/WCHS Auditorum.xlsx
@@ -1472,16 +1472,16 @@
   <dimension ref="A1:F444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="A7" sqref="A7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1590,22 +1590,22 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Docs/WCHS Auditorum.xlsx
+++ b/Docs/WCHS Auditorum.xlsx
@@ -1472,16 +1472,16 @@
   <dimension ref="A1:F444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F9"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1590,22 +1590,22 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="13.9" customHeight="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
